--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H2">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>50.1083596218918</v>
+        <v>0.051811</v>
       </c>
       <c r="N2">
-        <v>50.1083596218918</v>
+        <v>0.155433</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.001029435082588367</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001029435082588367</v>
       </c>
       <c r="Q2">
-        <v>251.4621264178491</v>
+        <v>0.06017110206766667</v>
       </c>
       <c r="R2">
-        <v>251.4621264178491</v>
+        <v>0.541539918609</v>
       </c>
       <c r="S2">
-        <v>0.6787077035312032</v>
+        <v>0.0001308257949240987</v>
       </c>
       <c r="T2">
-        <v>0.6787077035312032</v>
+        <v>0.0001308257949240987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.37563618779034</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H3">
-        <v>2.37563618779034</v>
+        <v>3.484073</v>
       </c>
       <c r="I3">
-        <v>0.3212922964687967</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J3">
-        <v>0.3212922964687967</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>50.1083596218918</v>
+        <v>0.09131133333333334</v>
       </c>
       <c r="N3">
-        <v>50.1083596218918</v>
+        <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001814268977075408</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001814268977075407</v>
       </c>
       <c r="Q3">
-        <v>119.0392324285784</v>
+        <v>0.1060451170202222</v>
       </c>
       <c r="R3">
-        <v>119.0392324285784</v>
+        <v>0.954406053182</v>
       </c>
       <c r="S3">
-        <v>0.3212922964687967</v>
+        <v>0.0002305664389591533</v>
       </c>
       <c r="T3">
-        <v>0.3212922964687967</v>
+        <v>0.0002305664389591533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.161357666666667</v>
+      </c>
+      <c r="H4">
+        <v>3.484073</v>
+      </c>
+      <c r="I4">
+        <v>0.1270850363824361</v>
+      </c>
+      <c r="J4">
+        <v>0.1270850363824361</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.04236633333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.127099</v>
+      </c>
+      <c r="O4">
+        <v>0.0008417785770196733</v>
+      </c>
+      <c r="P4">
+        <v>0.0008417785770196732</v>
+      </c>
+      <c r="Q4">
+        <v>0.04920246602522222</v>
+      </c>
+      <c r="R4">
+        <v>0.442822194227</v>
+      </c>
+      <c r="S4">
+        <v>0.0001069774610865005</v>
+      </c>
+      <c r="T4">
+        <v>0.0001069774610865005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.161357666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.484073</v>
+      </c>
+      <c r="I5">
+        <v>0.1270850363824361</v>
+      </c>
+      <c r="J5">
+        <v>0.1270850363824361</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>50.144057</v>
+      </c>
+      <c r="N5">
+        <v>150.432171</v>
+      </c>
+      <c r="O5">
+        <v>0.9963145173633166</v>
+      </c>
+      <c r="P5">
+        <v>0.9963145173633166</v>
+      </c>
+      <c r="Q5">
+        <v>58.23518503472034</v>
+      </c>
+      <c r="R5">
+        <v>524.1166653124831</v>
+      </c>
+      <c r="S5">
+        <v>0.1266166666874664</v>
+      </c>
+      <c r="T5">
+        <v>0.1266166666874664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H6">
+        <v>15.504521</v>
+      </c>
+      <c r="I6">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J6">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.051811</v>
+      </c>
+      <c r="N6">
+        <v>0.155433</v>
+      </c>
+      <c r="O6">
+        <v>0.001029435082588367</v>
+      </c>
+      <c r="P6">
+        <v>0.001029435082588367</v>
+      </c>
+      <c r="Q6">
+        <v>0.2677682458436667</v>
+      </c>
+      <c r="R6">
+        <v>2.409914212593</v>
+      </c>
+      <c r="S6">
+        <v>0.0005821896627144099</v>
+      </c>
+      <c r="T6">
+        <v>0.0005821896627144099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H7">
+        <v>15.504521</v>
+      </c>
+      <c r="I7">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J7">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.09131133333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.273934</v>
+      </c>
+      <c r="O7">
+        <v>0.001814268977075408</v>
+      </c>
+      <c r="P7">
+        <v>0.001814268977075407</v>
+      </c>
+      <c r="Q7">
+        <v>0.4719128284015556</v>
+      </c>
+      <c r="R7">
+        <v>4.247215455614</v>
+      </c>
+      <c r="S7">
+        <v>0.001026046869493667</v>
+      </c>
+      <c r="T7">
+        <v>0.001026046869493667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H8">
+        <v>15.504521</v>
+      </c>
+      <c r="I8">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J8">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04236633333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.127099</v>
+      </c>
+      <c r="O8">
+        <v>0.0008417785770196733</v>
+      </c>
+      <c r="P8">
+        <v>0.0008417785770196732</v>
+      </c>
+      <c r="Q8">
+        <v>0.2189565682865556</v>
+      </c>
+      <c r="R8">
+        <v>1.970609114579</v>
+      </c>
+      <c r="S8">
+        <v>0.0004760618655069309</v>
+      </c>
+      <c r="T8">
+        <v>0.0004760618655069308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H9">
+        <v>15.504521</v>
+      </c>
+      <c r="I9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>50.144057</v>
+      </c>
+      <c r="N9">
+        <v>150.432171</v>
+      </c>
+      <c r="O9">
+        <v>0.9963145173633166</v>
+      </c>
+      <c r="P9">
+        <v>0.9963145173633166</v>
+      </c>
+      <c r="Q9">
+        <v>259.1531949272324</v>
+      </c>
+      <c r="R9">
+        <v>2332.378754345091</v>
+      </c>
+      <c r="S9">
+        <v>0.5634585634703471</v>
+      </c>
+      <c r="T9">
+        <v>0.5634585634703471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.426695</v>
+      </c>
+      <c r="I10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.051811</v>
+      </c>
+      <c r="N10">
+        <v>0.155433</v>
+      </c>
+      <c r="O10">
+        <v>0.001029435082588367</v>
+      </c>
+      <c r="P10">
+        <v>0.001029435082588367</v>
+      </c>
+      <c r="Q10">
+        <v>0.1455318315483333</v>
+      </c>
+      <c r="R10">
+        <v>1.309786483935</v>
+      </c>
+      <c r="S10">
+        <v>0.0003164196249498585</v>
+      </c>
+      <c r="T10">
+        <v>0.0003164196249498585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.426695</v>
+      </c>
+      <c r="I11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09131133333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.273934</v>
+      </c>
+      <c r="O11">
+        <v>0.001814268977075408</v>
+      </c>
+      <c r="P11">
+        <v>0.001814268977075407</v>
+      </c>
+      <c r="Q11">
+        <v>0.2564842520144445</v>
+      </c>
+      <c r="R11">
+        <v>2.30835826813</v>
+      </c>
+      <c r="S11">
+        <v>0.0005576556686225869</v>
+      </c>
+      <c r="T11">
+        <v>0.0005576556686225869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.426695</v>
+      </c>
+      <c r="I12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04236633333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.127099</v>
+      </c>
+      <c r="O12">
+        <v>0.0008417785770196733</v>
+      </c>
+      <c r="P12">
+        <v>0.0008417785770196732</v>
+      </c>
+      <c r="Q12">
+        <v>0.1190027230894444</v>
+      </c>
+      <c r="R12">
+        <v>1.071024507805</v>
+      </c>
+      <c r="S12">
+        <v>0.0002587392504262419</v>
+      </c>
+      <c r="T12">
+        <v>0.0002587392504262419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.426695</v>
+      </c>
+      <c r="I13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>50.144057</v>
+      </c>
+      <c r="N13">
+        <v>150.432171</v>
+      </c>
+      <c r="O13">
+        <v>0.9963145173633166</v>
+      </c>
+      <c r="P13">
+        <v>0.9963145173633166</v>
+      </c>
+      <c r="Q13">
+        <v>140.8495581338717</v>
+      </c>
+      <c r="R13">
+        <v>1267.646023204845</v>
+      </c>
+      <c r="S13">
+        <v>0.3062392872055033</v>
+      </c>
+      <c r="T13">
+        <v>0.3062392872055033</v>
       </c>
     </row>
   </sheetData>
